--- a/Grid Land Doc/Countdown_Grid_TODO_Checklist.xlsx
+++ b/Grid Land Doc/Countdown_Grid_TODO_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\typar\Desktop\Document\Grid Land Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2026C46-F442-4F69-97E8-08A5C7DE851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16DFB2E-78E6-45C5-BDAD-05406C2C5313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16457" yWindow="7149" windowWidth="18514" windowHeight="16157" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="221">
   <si>
     <t>Day</t>
   </si>
@@ -698,7 +698,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>대기</t>
+    <t>그리드 로직 x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 시 랜덤 할당</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 프리팹 및 스크립트 X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>별도 베이스 클래스 X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 제한 X(소비량 증가로 플레이어가 짓지 않도록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,6 +826,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1114,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1229,7 @@
       </c>
       <c r="N2" s="5">
         <f>COUNTIF(F2:F64,"완료")</f>
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1241,7 +1264,7 @@
       </c>
       <c r="N3" s="6">
         <f>N2/63</f>
-        <v>9.5238095238095233E-2</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1311,7 +1334,7 @@
       </c>
       <c r="N5" s="5">
         <f>COUNTIF(F2:F64,"대기")</f>
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1374,7 +1397,9 @@
         <v>0</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="M7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1399,7 +1424,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -1427,7 +1452,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -1436,7 +1461,9 @@
         <v>0</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -1455,7 +1482,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G10" s="3">
         <v>1.5</v>
@@ -1483,7 +1510,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G11" s="3">
         <v>1.5</v>
@@ -1511,7 +1538,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -1539,7 +1566,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1567,7 +1594,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G14" s="3">
         <v>1.5</v>
@@ -1595,7 +1622,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G15" s="3">
         <v>0.5</v>
@@ -1623,7 +1650,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G16" s="3">
         <v>1.5</v>
@@ -1651,7 +1678,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -1679,7 +1706,7 @@
         <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G18" s="3">
         <v>0.5</v>
@@ -1707,7 +1734,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -1735,7 +1762,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -1763,7 +1790,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G21" s="3">
         <v>1.5</v>
@@ -1772,7 +1799,9 @@
         <v>0</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -1791,7 +1820,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
@@ -1800,7 +1829,9 @@
         <v>0</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -1819,7 +1850,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G23" s="3">
         <v>2</v>
@@ -1828,35 +1859,37 @@
         <v>0</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="J23" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" s="9">
         <v>2</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -1875,7 +1908,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G25" s="3">
         <v>2</v>
@@ -1903,7 +1936,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G26" s="3">
         <v>2.5</v>
@@ -1931,7 +1964,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -1959,7 +1992,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G28" s="3">
         <v>1.5</v>
@@ -1970,201 +2003,201 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>7</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="9">
         <v>2</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>7</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" s="9">
         <v>1</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>7</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="9">
         <v>1.5</v>
       </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
         <v>7</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="9">
         <v>1.5</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
         <v>8</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="9">
         <v>3</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
         <v>8</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="9">
         <v>1.5</v>
       </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
         <v>8</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="9">
         <v>1</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -2183,7 +2216,7 @@
         <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -2192,7 +2225,9 @@
         <v>0</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">

--- a/Grid Land Doc/Countdown_Grid_TODO_Checklist.xlsx
+++ b/Grid Land Doc/Countdown_Grid_TODO_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\typar\Desktop\Document\Grid Land Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16DFB2E-78E6-45C5-BDAD-05406C2C5313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3484D602-4FDE-4E47-8650-6DEF4E21369A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16457" yWindow="7149" windowWidth="18514" windowHeight="16157" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="225">
   <si>
     <t>Day</t>
   </si>
@@ -292,9 +292,6 @@
     <t>목재 투입 UI</t>
   </si>
   <si>
-    <t>투입 진행도 표시 (0/20)</t>
-  </si>
-  <si>
     <t>누적 카운터 로직</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
   </si>
   <si>
     <t>식량 0 체크 → 게임 오버</t>
-  </si>
-  <si>
-    <t>항구 목재 20 체크 → 승리</t>
   </si>
   <si>
     <t>결과 화면 UI</t>
@@ -715,6 +709,30 @@
   </si>
   <si>
     <t>건설 제한 X(소비량 증가로 플레이어가 짓지 않도록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입 X 턴 당 소모량 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>항구 5턴 유지 → 승리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입 진행도 표시 (0/20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상 변화 -&gt; 색상 X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어 지원 필요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다회 플레이 가능하게 개선 필요</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1137,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G2" s="3">
         <v>0.5</v>
@@ -1229,7 +1247,7 @@
       </c>
       <c r="N2" s="5">
         <f>COUNTIF(F2:F64,"완료")</f>
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1249,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G3" s="3">
         <v>0.5</v>
@@ -1264,7 +1282,7 @@
       </c>
       <c r="N3" s="6">
         <f>N2/63</f>
-        <v>0.55555555555555558</v>
+        <v>0.90476190476190477</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1284,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G4" s="3">
         <v>0.5</v>
@@ -1319,7 +1337,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -1334,7 +1352,7 @@
       </c>
       <c r="N5" s="5">
         <f>COUNTIF(F2:F64,"대기")</f>
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1354,7 +1372,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G6" s="3">
         <v>1.5</v>
@@ -1388,7 +1406,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
@@ -1398,7 +1416,7 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>29</v>
@@ -1424,7 +1442,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -1452,7 +1470,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -1462,7 +1480,7 @@
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1482,7 +1500,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G10" s="3">
         <v>1.5</v>
@@ -1510,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G11" s="3">
         <v>1.5</v>
@@ -1538,7 +1556,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -1566,7 +1584,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1594,7 +1612,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G14" s="3">
         <v>1.5</v>
@@ -1622,7 +1640,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G15" s="3">
         <v>0.5</v>
@@ -1650,7 +1668,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G16" s="3">
         <v>1.5</v>
@@ -1678,7 +1696,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -1706,7 +1724,7 @@
         <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G18" s="3">
         <v>0.5</v>
@@ -1734,7 +1752,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -1762,7 +1780,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -1790,7 +1808,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G21" s="3">
         <v>1.5</v>
@@ -1800,7 +1818,7 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1820,7 +1838,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
@@ -1830,7 +1848,7 @@
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1850,7 +1868,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G23" s="3">
         <v>2</v>
@@ -1860,36 +1878,36 @@
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="3">
         <v>2</v>
       </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -1908,7 +1926,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G25" s="3">
         <v>2</v>
@@ -1936,7 +1954,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G26" s="3">
         <v>2.5</v>
@@ -1964,7 +1982,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -1992,7 +2010,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G28" s="3">
         <v>1.5</v>
@@ -2003,201 +2021,201 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>7</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="F29" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="3">
         <v>2</v>
       </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>7</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="F30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>7</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="F31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="3">
         <v>1.5</v>
       </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>7</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="F32" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="3">
         <v>1.5</v>
       </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>8</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="F33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>8</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="F34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="3">
         <v>1.5</v>
       </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>8</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="F35" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -2216,7 +2234,7 @@
         <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -2226,7 +2244,7 @@
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2246,7 +2264,7 @@
         <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G37" s="3">
         <v>2</v>
@@ -2255,7 +2273,9 @@
         <v>0</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -2271,10 +2291,10 @@
         <v>82</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G38" s="3">
         <v>1.5</v>
@@ -2283,7 +2303,9 @@
         <v>0</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
@@ -2299,10 +2321,10 @@
         <v>82</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G39" s="3">
         <v>1</v>
@@ -2311,26 +2333,28 @@
         <v>0</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G40" s="3">
         <v>1.5</v>
@@ -2346,19 +2370,19 @@
         <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G41" s="3">
         <v>1.5</v>
@@ -2374,19 +2398,19 @@
         <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E42" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G42" s="3">
         <v>2</v>
@@ -2402,19 +2426,19 @@
         <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -2430,19 +2454,19 @@
         <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G44" s="3">
         <v>2</v>
@@ -2458,19 +2482,19 @@
         <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G45" s="3">
         <v>2</v>
@@ -2486,19 +2510,19 @@
         <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="E46" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G46" s="3">
         <v>1.5</v>
@@ -2507,26 +2531,28 @@
         <v>0</v>
       </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G47" s="3">
         <v>3</v>
@@ -2534,7 +2560,9 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2542,19 +2570,19 @@
         <v>12</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G48" s="3">
         <v>0.5</v>
@@ -2570,19 +2598,19 @@
         <v>12</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G49" s="3">
         <v>2</v>
@@ -2598,19 +2626,19 @@
         <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
@@ -2626,19 +2654,19 @@
         <v>13</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G51" s="3">
         <v>3</v>
@@ -2647,26 +2675,28 @@
         <v>0</v>
       </c>
       <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="J51" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G52" s="3">
         <v>4</v>
@@ -2682,19 +2712,19 @@
         <v>15</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G53" s="3">
         <v>4</v>
@@ -2710,19 +2740,19 @@
         <v>15</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G54" s="3">
         <v>2</v>
@@ -2738,19 +2768,19 @@
         <v>16</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G55" s="3">
         <v>3</v>
@@ -2766,19 +2796,19 @@
         <v>16</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -2789,77 +2819,77 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="57" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
         <v>16</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G57" s="9">
+        <v>2</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>17</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>17</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F58" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" s="9">
         <v>1</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>17</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>16</v>
@@ -2878,16 +2908,16 @@
         <v>17</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="D60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>16</v>
@@ -2906,16 +2936,16 @@
         <v>17</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>16</v>
@@ -2937,13 +2967,13 @@
         <v>30</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>16</v>
@@ -2965,13 +2995,13 @@
         <v>30</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>16</v>
@@ -2993,13 +3023,13 @@
         <v>30</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>16</v>
@@ -3045,22 +3075,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -3074,19 +3104,19 @@
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -3099,19 +3129,19 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3124,19 +3154,19 @@
         <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -3149,16 +3179,16 @@
         <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>73</v>
@@ -3174,19 +3204,19 @@
         <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3196,19 +3226,19 @@
         <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>47</v>
@@ -3221,26 +3251,26 @@
         <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3248,26 +3278,26 @@
         <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3275,26 +3305,26 @@
         <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3305,19 +3335,19 @@
         <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -3330,23 +3360,23 @@
         <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3354,19 +3384,19 @@
         <v>73</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>74</v>
@@ -3376,22 +3406,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>81</v>
@@ -3401,22 +3431,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>46</v>
@@ -3426,47 +3456,47 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>53</v>
@@ -3476,22 +3506,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>74</v>
@@ -3501,47 +3531,47 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>46</v>
@@ -3551,22 +3581,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>53</v>
@@ -3576,75 +3606,75 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -3673,115 +3703,115 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Grid Land Doc/Countdown_Grid_TODO_Checklist.xlsx
+++ b/Grid Land Doc/Countdown_Grid_TODO_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\typar\Desktop\Document\Grid Land Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3484D602-4FDE-4E47-8650-6DEF4E21369A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA78F13E-FE08-4A79-9F0C-61DC488064AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16457" yWindow="7149" windowWidth="18514" windowHeight="16157" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Tasks" sheetId="1" r:id="rId1"/>
@@ -821,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -844,13 +844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1155,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2819,61 +2812,61 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>16</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G57" s="9">
+      <c r="F57" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G57" s="3">
         <v>2</v>
       </c>
-      <c r="H57" s="9">
-        <v>0</v>
-      </c>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>17</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G58" s="9">
+      <c r="F58" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" s="3">
         <v>1</v>
       </c>
-      <c r="H58" s="9">
-        <v>0</v>
-      </c>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
@@ -3053,7 +3046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3107,7 +3102,7 @@
         <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>136</v>
@@ -3132,7 +3127,7 @@
         <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>136</v>
@@ -3157,7 +3152,7 @@
         <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>136</v>
@@ -3182,7 +3177,7 @@
         <v>143</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>136</v>
@@ -3207,7 +3202,7 @@
         <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>136</v>
@@ -3232,7 +3227,7 @@
         <v>146</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>136</v>
@@ -3257,7 +3252,7 @@
         <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>136</v>
@@ -3284,7 +3279,7 @@
         <v>152</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>136</v>
@@ -3311,7 +3306,7 @@
         <v>155</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>136</v>
@@ -3338,7 +3333,7 @@
         <v>157</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>136</v>
@@ -3363,7 +3358,7 @@
         <v>159</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>136</v>
@@ -3390,7 +3385,7 @@
         <v>163</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>136</v>
@@ -3415,7 +3410,7 @@
         <v>165</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>136</v>
@@ -3440,7 +3435,7 @@
         <v>167</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>136</v>
@@ -3465,7 +3460,7 @@
         <v>169</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>136</v>
@@ -3490,7 +3485,7 @@
         <v>173</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>136</v>
@@ -3515,7 +3510,7 @@
         <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>136</v>
@@ -3540,7 +3535,7 @@
         <v>178</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>136</v>
@@ -3565,7 +3560,7 @@
         <v>180</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>136</v>
@@ -3590,7 +3585,7 @@
         <v>181</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>136</v>
@@ -3689,7 +3684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
